--- a/Excel/Trilha Excel/Fórmulas/21_Função INDIRETO - Uso com Outros Funções.xlsx
+++ b/Excel/Trilha Excel/Fórmulas/21_Função INDIRETO - Uso com Outros Funções.xlsx
@@ -5,16 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a2f4a81bc3d9dd/Documentos/GitHub/Hashtag_AnaliseDados/Excel/Trilha Excel/Fórmulas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\GitPessoal\Hashtag_AnaliseDados\Excel\Trilha Excel\Fórmulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4C38312D-CE8D-4339-BCB9-83F5508DBD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C95EB746-9212-42EB-8A01-284CA32EA543}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BC87A6-E262-4A73-B595-0F571A7BB22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="801" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="801" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="23" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Ano_2010">Base!$C$3:$I$3</definedName>
+    <definedName name="Ano_2011">Base!$C$4:$I$4</definedName>
+    <definedName name="Ano_2012">Base!$C$5:$I$5</definedName>
+    <definedName name="Ano_2013">Base!$C$6:$I$6</definedName>
+    <definedName name="Ano_2014">Base!$C$7:$I$7</definedName>
+    <definedName name="Ano_2015">Base!$C$8:$I$8</definedName>
+    <definedName name="Ano_2016">Base!$C$9:$I$9</definedName>
+    <definedName name="Ano_2017">Base!$C$10:$I$10</definedName>
+    <definedName name="Ano_2018">Base!$C$11:$I$11</definedName>
+    <definedName name="Ano_2019">Base!$C$12:$I$12</definedName>
+    <definedName name="Ano_2020">Base!$C$13:$I$13</definedName>
+    <definedName name="Corolla">Base!$E$3:$E$13</definedName>
+    <definedName name="Duster">Base!$G$3:$G$13</definedName>
+    <definedName name="Etios">Base!$F$3:$F$13</definedName>
+    <definedName name="Kicks">Base!$D$3:$D$13</definedName>
+    <definedName name="Logan">Base!$H$3:$H$13</definedName>
+    <definedName name="Produção">Base!$C$3:$I$13</definedName>
+    <definedName name="Sandero">Base!$I$3:$I$13</definedName>
+    <definedName name="Versa">Base!$C$3:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +54,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Produção</t>
   </si>
@@ -79,6 +122,48 @@
   </si>
   <si>
     <t>Marca</t>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
+  <si>
+    <t>CORRESP</t>
+  </si>
+  <si>
+    <t>INDIRETO</t>
+  </si>
+  <si>
+    <t>Ano_2010</t>
+  </si>
+  <si>
+    <t>Ano_2011</t>
+  </si>
+  <si>
+    <t>Ano_2012</t>
+  </si>
+  <si>
+    <t>Ano_2013</t>
+  </si>
+  <si>
+    <t>Ano_2014</t>
+  </si>
+  <si>
+    <t>Ano_2015</t>
+  </si>
+  <si>
+    <t>Ano_2016</t>
+  </si>
+  <si>
+    <t>Ano_2017</t>
+  </si>
+  <si>
+    <t>Ano_2018</t>
+  </si>
+  <si>
+    <t>Ano_2019</t>
+  </si>
+  <si>
+    <t>Ano_2020</t>
   </si>
 </sst>
 </file>
@@ -474,20 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8A165-DB37-4B4A-9F49-FD3D0FA3F5BB}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.85546875" customWidth="1"/>
     <col min="11" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>0</v>
@@ -522,9 +607,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
-        <v>2010</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>73400</v>
@@ -550,17 +638,18 @@
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="e">
+      <c r="L3" s="3">
         <f ca="1">SUM(INDIRECT(K2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>2011</v>
+        <v>690700</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>73100</v>
@@ -586,14 +675,23 @@
       <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <f ca="1">AVERAGE(INDIRECT(K2))</f>
+        <v>62790.909090909088</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>2012</v>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>97000</v>
@@ -619,12 +717,24 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>2013</v>
+      <c r="L5" s="3">
+        <f ca="1">MAX(INDIRECT(K2))</f>
+        <v>99700</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f ca="1">INDEX(B3:B13,MATCH(L5,INDIRECT(K2)))</f>
+        <v>Ano_2015</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>88500</v>
@@ -650,12 +760,24 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>2014</v>
+      <c r="L6" s="3">
+        <f ca="1">MIN(INDIRECT(K2))</f>
+        <v>17600</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f ca="1">INDEX(B3:B13,MATCH(L6,INDIRECT(K2)))</f>
+        <v>Ano_2012</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>83600</v>
@@ -679,9 +801,12 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>2015</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>43800</v>
@@ -704,8 +829,8 @@
       <c r="I8" s="3">
         <v>59800</v>
       </c>
-      <c r="K8" s="1">
-        <v>2014</v>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
@@ -714,9 +839,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>2016</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>25300</v>
@@ -742,14 +870,20 @@
       <c r="K9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <f ca="1">SUM(INDIRECT(K8))</f>
+        <v>370000</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>2017</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>16000</v>
@@ -775,14 +909,20 @@
       <c r="K10" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <f ca="1">AVERAGE(INDIRECT(K8))</f>
+        <v>52857.142857142855</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>2018</v>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>60900</v>
@@ -808,12 +948,21 @@
       <c r="K11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>2019</v>
+      <c r="L11" s="3">
+        <f ca="1">MAX(INDIRECT(K8))</f>
+        <v>81000</v>
+      </c>
+      <c r="M11" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">INDEX(C2:I2,0,MATCH(L11,INDIRECT(K8),0))</f>
+        <v>Etios</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>36000</v>
@@ -839,12 +988,21 @@
       <c r="K12" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>2020</v>
+      <c r="L12" s="3">
+        <f ca="1">MIN(INDIRECT(K8))</f>
+        <v>24300</v>
+      </c>
+      <c r="M12" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">INDEX(C2:I2,0,MATCH(L12,INDIRECT(K8)))</f>
+        <v>Kicks</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>87900</v>
@@ -869,7 +1027,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{FA36DCEB-63BA-4597-9E72-8F76752BA311}">
       <formula1>$C$2:$I$2</formula1>
     </dataValidation>
